--- a/biology/Médecine/Isabelle_Ausset/Isabelle_Ausset.xlsx
+++ b/biology/Médecine/Isabelle_Ausset/Isabelle_Ausset.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Isabelle Ausset est une chirurgienne orthopédiste française, médecin militaire et présidente du Centre national de gestion des praticiens hospitaliers depuis avril 2020.
 </t>
@@ -511,9 +523,11 @@
           <t>Jeunesse et études</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle nait le 4 novembre 1957 à Mantes-la-Jolie (à l'époque en Seine-et-Oise). Elle suit les études de médecine à l'École du service de santé des armées de Bordeaux et à l'université de Bordeaux, elle soutient sa thèse en 1982[1]. Elle effectue une formation complémentaire en médecine tropicale à l'Institut de médecine tropicale du service de santé des armées du Pharo, à Marseille.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle nait le 4 novembre 1957 à Mantes-la-Jolie (à l'époque en Seine-et-Oise). Elle suit les études de médecine à l'École du service de santé des armées de Bordeaux et à l'université de Bordeaux, elle soutient sa thèse en 1982. Elle effectue une formation complémentaire en médecine tropicale à l'Institut de médecine tropicale du service de santé des armées du Pharo, à Marseille.
 </t>
         </is>
       </c>
@@ -542,11 +556,13 @@
           <t>Praticienne en médecine d'armée</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Isabelle Ausset est affectée en 1983 à Niamey. À la suite du concours d'assistanat des hôpitaux des armées, elle exerce l'orthopédie à l'hôpital d'instruction des armées Robert-Picqué de Bordeaux puis à l'hôpital d'instruction des armées Clermont-Tonnerre de Brest. Elle réussit en 1995 le concours de chirurgien des hôpitaux des armées et est alors affectée à l'hôpital d'instruction des armées Sainte-Anne de Toulon. Elle y dirige le service de chirurgie orthopédique et traumatologique à la fin des années 2000[2].
-Parallèlement à ses fonctions hospitalières, elle est désignée comme médecin-chef de la 4e antenne chirurgicale aérotransportable de 1996 à 1998 puis de 2002 à 2006. Elle participe à une quinzaine de missions d'opérations extérieures notamment au Tchad, au Kosovo et en Afghanistan comme chef du service de chirurgie orthopédique et traumatologique de l'hôpital KAIA de Kaboul[2],[3].
-Brevetée parachutiste, elle valide en pratique la possibilité pour un chirurgien militaire de rejoindre en haute mer un sous-marin nucléaire d'attaque où une intervention urgente est nécessaire : en 2006, elle saute à 3 000 mètres d'altitude en tandem avec un chuteur opérationnel des commandos marine et amerrit à proximité immédiate du submersible[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Isabelle Ausset est affectée en 1983 à Niamey. À la suite du concours d'assistanat des hôpitaux des armées, elle exerce l'orthopédie à l'hôpital d'instruction des armées Robert-Picqué de Bordeaux puis à l'hôpital d'instruction des armées Clermont-Tonnerre de Brest. Elle réussit en 1995 le concours de chirurgien des hôpitaux des armées et est alors affectée à l'hôpital d'instruction des armées Sainte-Anne de Toulon. Elle y dirige le service de chirurgie orthopédique et traumatologique à la fin des années 2000.
+Parallèlement à ses fonctions hospitalières, elle est désignée comme médecin-chef de la 4e antenne chirurgicale aérotransportable de 1996 à 1998 puis de 2002 à 2006. Elle participe à une quinzaine de missions d'opérations extérieures notamment au Tchad, au Kosovo et en Afghanistan comme chef du service de chirurgie orthopédique et traumatologique de l'hôpital KAIA de Kaboul,.
+Brevetée parachutiste, elle valide en pratique la possibilité pour un chirurgien militaire de rejoindre en haute mer un sous-marin nucléaire d'attaque où une intervention urgente est nécessaire : en 2006, elle saute à 3 000 mètres d'altitude en tandem avec un chuteur opérationnel des commandos marine et amerrit à proximité immédiate du submersible.
 </t>
         </is>
       </c>
@@ -575,11 +591,13 @@
           <t>Directrice de structures de santé</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle est nommée médecin-chef-adjointe de l'hôpital d'instruction des armées Bégin à Saint-Mandé au début des années 2010. De 2014 à 2017, elle commande l'hôpital d'instruction des armées Desgenettes de Lyon, d'abord en tant que médecin générale (rang et prérogatives de général de brigade), puis, à partir de 2015 comme médecin générale inspectrice (rang et prérogatives de général de division). Elle y organise en 2014 un exercice de coopération civilo-militaire de prise en charge de blessés contaminés par des armes chimiques[5]. Elle initie aussi des coopérations avec l'hôpital Édouard-Herriot et l'hôpital Henry-Gabrielle, notamment en médecine physique et réadaptation[6].
-En 2017, elle est nommée inspectrice du Service de santé des armées[7].
-En avril 2020, elle est nommée présidente du Centre national de gestion des praticiens hospitaliers[8],[9].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle est nommée médecin-chef-adjointe de l'hôpital d'instruction des armées Bégin à Saint-Mandé au début des années 2010. De 2014 à 2017, elle commande l'hôpital d'instruction des armées Desgenettes de Lyon, d'abord en tant que médecin générale (rang et prérogatives de général de brigade), puis, à partir de 2015 comme médecin générale inspectrice (rang et prérogatives de général de division). Elle y organise en 2014 un exercice de coopération civilo-militaire de prise en charge de blessés contaminés par des armes chimiques. Elle initie aussi des coopérations avec l'hôpital Édouard-Herriot et l'hôpital Henry-Gabrielle, notamment en médecine physique et réadaptation.
+En 2017, elle est nommée inspectrice du Service de santé des armées.
+En avril 2020, elle est nommée présidente du Centre national de gestion des praticiens hospitaliers,.
 </t>
         </is>
       </c>
@@ -608,11 +626,13 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Officier de la Légion d'honneur (2015)[10]
-Commandeur de l'Ordre national du mérite (2018)[11]
-Lauréate du Prix Femmes de conviction au Trophée des femmes décideurs (2013)[12]</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Officier de la Légion d'honneur (2015)
+Commandeur de l'Ordre national du mérite (2018)
+Lauréate du Prix Femmes de conviction au Trophée des femmes décideurs (2013)</t>
         </is>
       </c>
     </row>
